--- a/data/15-12-2025-lookup_types-all.xlsx
+++ b/data/15-12-2025-lookup_types-all.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="626">
   <si>
     <t>Id</t>
   </si>
@@ -1893,6 +1893,12 @@
   </si>
   <si>
     <t>Subscriber location (home/business) — customer termination equipment/site.</t>
+  </si>
+  <si>
+    <t>94f314d2-c022-4a67-b3c1-5c1044a3d4dc</t>
+  </si>
+  <si>
+    <t>BBU_RINGS</t>
   </si>
 </sst>
 </file>
@@ -1987,13 +1993,13 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2335,7 +2341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8002,38 +8008,71 @@
       </c>
     </row>
     <row r="164" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="F164" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J164" s="9">
-        <v>45879</v>
-      </c>
-      <c r="K164" s="9">
+      <c r="F164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="3">
+        <v>45879</v>
+      </c>
+      <c r="K164" s="3">
         <v>46004.7259987963</v>
+      </c>
+    </row>
+    <row r="165" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="9">
+        <v>46006.71911071759</v>
+      </c>
+      <c r="K165" s="9">
+        <v>46006.71911071759</v>
       </c>
     </row>
   </sheetData>
